--- a/data/trans_dic/P25A_11_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_11_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos depresivos</t>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,4</t>
+          <t>0,65; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 9,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,65</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,63</t>
+          <t>1,05; 9,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,06</t>
+          <t>0,58; 5,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>0,84; 6,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,76</t>
+          <t>0,84; 6,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,44</t>
+          <t>4,97; 15,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,43</t>
+          <t>2,36; 10,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>3,88; 14,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 4,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 6,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 6,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 8,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 6,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 10,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>2,06%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>45,97%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,8</t>
+          <t>0,63; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,6</t>
+          <t>0,53; 4,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,78</t>
+          <t>0,79; 5,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 89,98</t>
+          <t>1,73; 10,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,79</t>
+          <t>2,99; 12,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,93</t>
+          <t>1,03; 6,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,78</t>
+          <t>0,54; 4,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 61,17</t>
+          <t>1,99; 7,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,23</t>
+          <t>0,71; 4,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,77</t>
+          <t>0,95; 5,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,68</t>
+          <t>3,36; 10,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,6; 68,14</t>
+          <t>4,01; 12,23</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 4,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,85</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 3,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 6,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 9,69</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,66</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,21</t>
+          <t>1,57; 6,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,65</t>
+          <t>0,38; 3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,37; 91,71</t>
+          <t>2,14; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,36</t>
+          <t>3,26; 9,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,87</t>
+          <t>1,02; 5,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,49</t>
+          <t>2,37; 7,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,61; 72,38</t>
+          <t>3,44; 8,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,31</t>
+          <t>4,41; 9,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,14</t>
+          <t>4,1; 10,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,14</t>
+          <t>5,61; 13,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,24; 74,01</t>
+          <t>4,58; 10,78</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 5,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 5,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 5,35</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 7,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 10,13</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 6,97</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,83%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,72</t>
+          <t>1,73; 6,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,02</t>
+          <t>1,75; 6,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,28</t>
+          <t>3,3; 8,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 84,97</t>
+          <t>1,9; 7,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,19</t>
+          <t>4,21; 11,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,78</t>
+          <t>3,33; 9,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,6</t>
+          <t>4,64; 10,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,51; 77,85</t>
+          <t>4,7; 10,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,87</t>
+          <t>5,0; 10,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,17</t>
+          <t>8,23; 16,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,28</t>
+          <t>8,62; 16,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,47; 74,68</t>
+          <t>7,67; 14,75</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 7,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 7,22</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 8,44</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 10,71</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 12,43</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 10,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,34</t>
+          <t>1,89; 7,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,94</t>
+          <t>1,06; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,19</t>
+          <t>1,82; 6,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,82; 91,18</t>
+          <t>5,43; 14,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 10,18</t>
+          <t>8,35; 17,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,93</t>
+          <t>1,73; 6,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 16,27</t>
+          <t>3,49; 10,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,07; 89,78</t>
+          <t>6,23; 14,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,56</t>
+          <t>8,33; 15,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,61</t>
+          <t>12,42; 22,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,06</t>
+          <t>10,22; 20,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 87,84</t>
+          <t>10,07; 20,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 7,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 8,53</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 10,27</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 17,14</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>10,64; 17,25</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,03; 12,86</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,04</t>
+          <t>1,91; 15,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,41; 24,35</t>
+          <t>5,83; 19,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,52</t>
+          <t>1,58; 9,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 100,0</t>
+          <t>0,55; 5,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,16; 14,45</t>
+          <t>1,2; 7,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,39</t>
+          <t>1,17; 8,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,31</t>
+          <t>5,07; 15,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,74; 65,07</t>
+          <t>5,06; 12,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,8</t>
+          <t>6,47; 17,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,31</t>
+          <t>5,25; 16,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,12</t>
+          <t>10,88; 22,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,84; 67,88</t>
+          <t>3,7; 13,93</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 12,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 13,95</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 12,43</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 10,32</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 14,94</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 9,85</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,04</t>
+          <t>2,52; 5,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,05</t>
+          <t>2,59; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,96</t>
+          <t>2,1; 4,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,14; 79,83</t>
+          <t>3,14; 5,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,18</t>
+          <t>4,73; 8,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,43</t>
+          <t>2,66; 5,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,07</t>
+          <t>4,27; 7,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52,63; 68,85</t>
+          <t>5,15; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,57</t>
+          <t>5,76; 8,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,13</t>
+          <t>7,89; 11,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,65</t>
+          <t>9,12; 13,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>56,86; 69,79</t>
+          <t>7,61; 11,1</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 6,16</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 6,08</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 8,26</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 9,83</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 7,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10940</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15068</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13041</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37251</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>19638</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26008</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26049</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>54367</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3283; 27499</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 52560</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 48859</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2371</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2530</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4947; 44386</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2722; 24052</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4338; 33731</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4330; 34304</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1859; 5847</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>909; 4039</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18525; 70921</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7396; 39404</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9829; 67816</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10127; 65262</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2320; 7022</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1298; 5279</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>30984; 99424</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13883</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11246</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13206</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16261</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8875</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20825</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9741</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2771</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36567</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22757</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32071</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22948</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3571</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6011</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>52829</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3594; 34049</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2974; 27036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4704; 29735</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>862; 5262</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1465; 6203</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5971; 36345</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2791; 24522</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10111; 36517</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3679; 22701</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>450; 2679</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1545; 5036</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20256; 61788</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9284; 45381</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18383; 51892</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11203; 43445</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1756; 6419</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3664; 9202</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31922; 82856</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24281</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11296</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16122</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39183</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48003</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52009</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>55328</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>50479</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>52226</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6290</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8434</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>68131</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10716; 43943</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2564; 24716</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15290</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1290; 4664</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1973; 5887</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6894; 34961</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16921; 52200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24750; 59812</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31450; 68020</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2211; 5890</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3076; 7217</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32616; 76826</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>35399; 81649</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34201; 75351</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>33908; 74601</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4219; 9060</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5795; 11679</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>46300; 96976</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21405</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35139</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2316</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36596</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48075</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47096</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48831</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6360</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70443</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>69480</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>70146</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8564</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>10234</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>107039</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11186; 40718</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11305; 40422</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21061; 54924</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1104; 4375</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2363; 6326</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21839; 61081</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31744; 72656</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31455; 70185</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32986; 68494</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4295; 8772</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4575; 8943</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50399; 97006</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>46565; 98058</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>50764; 94803</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>62474; 109433</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6072; 11829</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7633; 13566</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>79298; 138022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20554</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12801</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17893</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5692</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19088</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32858</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48174</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59486</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8446</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>76776</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>53412</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>60975</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>77379</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>12642</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>95864</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9370; 38104</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5318; 25832</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8981; 31631</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2416; 6505</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3768; 8085</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8528; 33328</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17550; 51047</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31248; 70628</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42737; 82083</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6057; 10967</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4788; 9654</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52054; 104922</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33270; 76787</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>43004; 85698</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>56337; 103406</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>9630; 15982</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>9785; 15865</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>70918; 129786</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30464</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59827</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22438</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19223</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64444</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55677</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71348</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6131</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10292</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>57844</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>94909</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>115503</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>93786</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>7129</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>11830</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>77067</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10439; 86054</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>30847; 102634</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8406; 52319</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>258; 2443</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>548; 3400</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6597; 48603</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35961; 107379</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35028; 84258</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>44624; 120153</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3321; 10707</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6927; 14364</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26663; 100304</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>59926; 156499</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>77338; 170418</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>60827; 151953</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3942; 11365</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>8486; 16359</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>45027; 126355</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>121356</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>129160</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>105907</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13080</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18761</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>124405</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>194167</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>226023</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>250451</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>29279</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>33121</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>330891</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>315524</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>355183</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>356358</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>42359</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>51882</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>455295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86732; 181895</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>89307; 192556</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>72283; 144224</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9471; 17648</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14218; 24117</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>91527; 173045</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>153115; 255135</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>185512; 270141</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>207997; 315365</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23894; 35551</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27641; 39552</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>273195; 398518</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>254739; 394505</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>296687; 434439</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>299546; 428989</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>35986; 49948</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>44895; 59353</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>384474; 533405</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
